--- a/1 - Scenario Processing/Annual Average Streamflow Scenario Selection/ClimateFlowsWeberRiver.xlsx
+++ b/1 - Scenario Processing/Annual Average Streamflow Scenario Selection/ClimateFlowsWeberRiver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WeberRiverFlow_Calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WeberBasinVulnerability\WeberBasinVulnerability\1 - Scenario Processing\Annual Average Streamflow Scenario Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE20DA8-582F-4B72-B8FD-FE92C9C04768}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3145AC9-22E1-4C3C-9D2F-640B185FC9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{39CAB22B-B0D4-43B6-8FB8-2788D87877D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{39CAB22B-B0D4-43B6-8FB8-2788D87877D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,4154 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$361</c:f>
+              <c:strCache>
+                <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>4495.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4202.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4428.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3397.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3934.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6462.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25900.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20689.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5519.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5436.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4862.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3731.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4316.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3604.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3873.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3066.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3793.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9266.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15597.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41671.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24000.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7882.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5942.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5453.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5742.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4176.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3668.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3116.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4923.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12803.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13145.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33263.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36692.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8240.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6251.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4617.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4527.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3677.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3547.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3010.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2799.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4160.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12526.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45633.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25316.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7378.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6839.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4494.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4299.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4912.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3573.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3023.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2973.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7602.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24626.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32475.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6578.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6418.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5695.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3964.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4430.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3603.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3144.7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3033.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8951.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21576.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30276.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>48290.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23351.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7010.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5745.9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4127.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4694.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4133.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3568.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2901.1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3010.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4936.1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16264.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9830.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2828.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5285.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4861.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3552.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2923.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2950.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2729.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2529.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2307.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3399.1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9181.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14762.6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3497.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4626.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4230.3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3368.7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2650.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2588.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2426.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2296.2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2037.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5572.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15989.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20572.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6818.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5363.7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4795.7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3789.4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3186.4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3005.4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2762.7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2615.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2210.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4479.6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15038.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>17446.2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11173.7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5770.1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4791.2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3600.6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3210.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3077.6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2753.9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2571.6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2523.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3162.8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7454.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>20081.2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>21153.2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6606.1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5273.8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3995.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3417.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3763.7</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3118.3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2759.3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2800.2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5573.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11603.2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7318.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2010.3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4480.6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4151.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3372.1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2617.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2835.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2354.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2246.8</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1962.3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7087.1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15028.2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>52100.4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>18260.3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8392.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6483.8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4054.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4763.2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3529.1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3271.6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2987.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2689.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6417.8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>20199.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>18276.1</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3746.6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5172.2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4797.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3589.8</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4003.4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2970.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2850.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2650.8</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3610.5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9817.4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>13048.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>38601.6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>32716.2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10318.4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5933.2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3991.2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3812.8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4332.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3828.6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3032.8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3634.6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9614.2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>24038.2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43143.1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13905.2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6353.4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5384.4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4152.5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3633.9</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4560.9</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3612.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2917.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2747.4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>12269.3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>20315.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43964.5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>11236.6</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6319.1</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5957.5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4784.2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4281.9</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3924.4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3453.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2937.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2681.7</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8021.2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>17245.7</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>37056.9</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>17172.2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>7813.6</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>6183.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4081.2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4073.3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3873.5</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3733.4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2927.2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2740.1</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>7733.8</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>14510.1</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>41641.6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>16640.4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>6773.3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>5923.7</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4071.7</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3625.9</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3211.7</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3079.9</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2944.2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3008.8</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4459.2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>12320.3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>18543.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4136.6</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5038.6</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4588.2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3733.9</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3249.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2750.8</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2736.2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2600.3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2219.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4048.8</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>10721.5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>12530.9</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2525.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4550.9</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4171.4</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3348.3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2641.6</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2618.3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2324.1</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2322.2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1981.5</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3064.4</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>9125.5</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>11402.2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3357.7</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4412.4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3985.3</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3730.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3482.4</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2893.4</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2512.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2669.5</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2316.1</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3663.2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>12757.1</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>14086.1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4342.2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4812.9</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4294.8</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3399.6</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2656.9</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2448.6</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2580.8</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2481.9</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2082.1</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>6085.3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>10516.3</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>7575.8</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2063.9</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>4539.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3947.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3122.4</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3542.9</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3878.2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2660.1</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2909.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2813.3</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>7584.3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>12942.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>34488.3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>16476.8</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>6587.8</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5286.9</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3800.2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3362.7</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3385.6</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3469.8</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2920.1</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2585.9</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>4294.6</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>16840.6</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>39793.5</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>9027.6</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>6032.9</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>5590.5</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4800.9</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>5698.2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>4084.4</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3549.3</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2943.7</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3326.2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>13861.4</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>14493.6</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>13797.5</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2931.8</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>5027.7</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>4797.7</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>4170.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3950.8</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2913.1</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2661.4</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2578.2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2239.6</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3021.2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6214.3</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>33326.4</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>27915.9</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>7453.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>5322.5</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>4238.1</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>3487.7</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3632.1</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3133.1</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3056.1</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3021.6</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>6208.1</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>15677.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>34659.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>12389.2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>6463.6</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>5445.5</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>4021.6</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3768.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3248.2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3073.9</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2814.6</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2486.2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3618.7</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>8270.7</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>20450.8</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>18500.6</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>6463.4</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5349.9</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3753.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$361</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>29495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29677</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29738</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29830</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29860</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29952</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30072</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30133</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30164</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30225</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30256</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30286</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30317</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30348</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30376</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30437</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30468</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30498</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30529</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30560</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30590</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30621</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30651</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30682</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30713</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30742</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30773</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30803</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30834</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30864</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30895</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30926</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30987</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31017</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31048</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31079</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>31107</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31138</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31168</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31199</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31229</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31260</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31291</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31321</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31352</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31382</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31413</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31444</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31472</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31503</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>31533</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>31564</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>31594</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31625</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31656</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>31686</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31717</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31747</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31778</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31809</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31837</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31868</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>31898</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>31929</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31959</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31990</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32021</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32051</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32082</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>32112</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>32143</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32174</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32203</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>32234</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>32264</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>32295</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32325</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32356</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>32387</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>32417</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>32448</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>32478</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>32509</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>32540</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32599</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>32629</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>32660</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>32690</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>32721</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>32752</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>32782</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>32813</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>32843</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>32874</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>32905</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>32933</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>32964</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>32994</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>33025</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>33055</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>33086</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>33117</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>33147</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>33178</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>33208</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>33239</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>33270</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>33298</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>33329</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>33359</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>33390</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>33420</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>33451</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>33482</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>33512</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>33543</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>33573</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>33604</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>33635</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>33664</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>33695</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>33725</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>33756</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>33786</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>33817</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>33848</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>33878</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>33909</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>33939</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>33970</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>34001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>34029</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>34060</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>34121</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>34151</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>34182</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>34213</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>34243</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>34274</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>34304</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>34335</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>34366</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>34394</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>34425</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>34455</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>34486</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>34516</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>34547</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>34578</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>34608</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>34639</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>34669</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>34700</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>34731</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>34759</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>34790</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>34820</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>34851</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>34881</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>34912</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>34943</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>34973</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>35004</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>35034</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>35096</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>35156</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>35217</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>35765</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>35796</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>35827</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>35855</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>35886</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>35916</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>35947</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>35977</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>36008</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>36039</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>36069</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>36100</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>36130</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>36161</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>36192</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>36220</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>36251</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>36281</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>36312</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>36342</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>36373</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>36404</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>36434</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>36465</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>36495</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>36557</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>36586</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>36617</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>36647</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>36678</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>36708</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>36739</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>36770</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>36800</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>36831</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>36861</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>36892</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>36923</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>36951</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>36982</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>37012</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>37043</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>38231</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>38261</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>38292</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>38322</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>38412</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>38443</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>38473</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>38504</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>38534</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>38565</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>38596</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>38626</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>38657</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>38687</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>38777</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>38808</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>38838</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>38869</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>38899</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>38961</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>38991</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>39052</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>39173</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>39203</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>39234</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>39264</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>39295</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>39326</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>39356</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>39387</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>39417</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>39508</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>39539</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>39569</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>39630</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>39661</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>39722</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>39753</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>39783</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>39845</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>39873</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>39904</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>39934</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>39965</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>39995</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>40026</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>40057</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>40087</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>40148</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>40269</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>40299</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>40330</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>40391</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>40422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$361</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>4495.3990450864267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4202.6327514252116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4428.2985018617674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3397.3779750039853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3934.9279684777898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6462.5037446193737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25900.420161883667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20689.628250001086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5518.9679873829273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5435.9963604317109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4861.9541082449796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3731.5432893372308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4316.3789768063889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3604.7061655181496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3873.2551833158391</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3066.9192013624875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3793.8007339648711</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9265.9839188625374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15597.693409722824</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41671.575847823602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24000.290998502474</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7882.7866561433857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5942.8675415439884</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5453.3258704548998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5742.7512663950874</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4176.3987707482711</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3668.1007762679983</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3115.9661586871116</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4923.0437407953723</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12803.238314420047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13144.959395423839</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33263.109895851667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36692.185280402737</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8240.1024197477291</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6251.7756025124345</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4617.5168295504436</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4527.9210505394467</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3677.5464979792864</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3547.5133024236325</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3010.3245953617024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2799.1465229450664</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4160.6422805367338</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12526.19486400656</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45633.650835414308</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25316.649595021998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7378.8034843660625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6839.8446074552339</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4494.7559450267945</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4299.6251458266061</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4912.034992425477</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3573.7801835395626</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3022.9701808461728</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2973.8015724135535</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7602.8518472483838</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24625.953506217575</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32474.971672218009</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6578.608614822555</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6418.22622255024</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5695.0823027783172</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3963.9879855592399</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4430.46438008122</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3603.80206755885</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3144.6606518303056</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3033.148741586675</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8951.0238346553961</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21576.262350628109</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30276.63940878748</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>48290.177603708602</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23351.184873345304</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7010.1168968768907</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5745.8504185022748</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4127.6930789937605</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4694.3483629673301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4133.7705588967729</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3567.9842372103717</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2901.077373953141</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3010.7245961915633</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4936.11544995243</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16264.897846933436</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9830.6343153352973</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2828.5842712567965</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5284.9727832209655</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4861.5516662343925</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3552.5009060237981</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2923.8271868694264</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2949.971847820133</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2729.2230525775271</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2529.7404123303559</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2306.9586612014054</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3399.1078578520742</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9181.4628296057854</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14762.552720244947</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3497.27604375177</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4626.5067997575516</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4230.3433660372675</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3368.7228394781396</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2650.6198542336128</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2588.7386054601257</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2426.2942366234161</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2296.2461148825028</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2037.3568123289331</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5572.3921608994215</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15989.045570820317</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20572.038794416971</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6818.4134777868667</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5363.6716128766557</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4795.6718581117948</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3789.385359073508</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3186.3815779546662</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3005.4233269801157</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2762.6792082140801</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2614.9903366079634</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2210.2080892660824</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4479.6472263956621</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15037.973522989421</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>17446.205454660903</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11173.718039408868</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5770.1380660055138</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4791.2080491061224</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3600.6384075365313</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3210.002706456642</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3077.5856010206426</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2753.8890349758144</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2571.5933775840249</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2523.3643097372014</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3162.7807425240971</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7454.1536207896661</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>20081.189236113772</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>21153.194805071347</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6606.0687333757141</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5273.7523805865221</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3995.1558132103146</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3417.0239259478312</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3763.7222868892204</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3118.2900439792534</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2759.284621227006</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2800.2075474184535</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5573.6993529273723</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11603.205661653274</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7318.0115225035133</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2010.3485729584597</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4480.560021789609</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4151.2183224875516</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3372.0593671511033</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2616.9714624719854</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2834.955245395231</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2354.5495369185228</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2246.7570357466084</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1962.3436079113167</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7087.1036257684709</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15028.236739899232</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>52100.357786842418</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>18260.272442691421</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8392.3431033286397</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6483.8089400906665</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4053.9576360160181</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4763.2094831874865</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3529.0781632684375</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3271.6221604707671</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2987.0087366890648</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2689.1864133566078</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6417.794002935233</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>20199.544845876604</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>18276.074411548958</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3746.6333662187835</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5172.2256341110979</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4797.0074682707364</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3589.767761356753</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4003.438093442664</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2970.0277938109393</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2850.655470819439</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2650.8482689347356</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3610.471996988153</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9817.3795850198749</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>13048.803272380228</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>38601.641558796277</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>32716.229256717124</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10318.350123376842</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5933.1711926663256</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3991.2093901018707</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3812.8421774684211</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4332.4465043712335</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3828.6370292565489</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3032.7864613997322</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3634.5569027309871</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9614.2027746461517</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>24038.209062924965</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43143.089936436685</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13905.175887977788</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6353.3805901656779</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5384.3994637050218</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4152.5196854714504</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3633.8847127685272</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4560.8674033167936</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3612.0094807630867</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2917.5442447288351</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2747.4224365091222</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>12269.291782176781</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>20314.957831781659</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43964.515947864791</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>11236.569437344086</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6319.1400789501977</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5957.5216401421858</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4784.1996096241937</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4281.8702490554952</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3924.41110840602</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3452.9851460546315</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2937.0215613302844</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2681.7328534136432</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8021.1611873500242</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>17245.716356916397</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>37056.937018791621</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>17172.182400542752</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>7813.6488492078779</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>6182.9870843359249</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4081.1969240320041</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4073.2846710679828</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3873.5252656348998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3733.4122025947513</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2927.1880247981348</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2740.1412916415284</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>7733.8232300195205</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>14510.142197677505</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>41641.604205886302</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>16640.425898053851</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>6773.2997658018758</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>5923.7493297036108</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4071.6985907029512</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3625.9380052388756</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3211.7389788147266</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3079.9273415130397</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2944.1551875276841</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3008.841290596306</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4459.2310980258235</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>12320.282495319461</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>18543.03585882685</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4136.5741856261639</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5038.5625302637327</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4588.1536976304487</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3733.8932070667724</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3249.0010208117601</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2750.7834976216318</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2736.1603372753107</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2600.3435320201561</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2219.0144518086217</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4048.765127054362</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>10721.538169153882</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>12530.946968090404</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2525.0320397162341</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4550.9309534311742</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4171.3792208198684</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3348.3269705980879</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2641.6093814150349</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2618.2725500580291</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2324.0876274708521</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2322.1862044882628</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1981.5345755889343</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3064.372279087695</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>9125.4995536908718</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>11402.172025275011</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3357.7165387416335</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4412.3672088877811</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3985.3390919858866</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3729.9826250653714</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3482.3809169689252</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2893.375173898673</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2511.9580586020193</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2669.4802349149099</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2316.0700768895849</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3663.1509319466104</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>12757.093875400147</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>14086.083729338527</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4342.2171203326525</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4812.9400749418182</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4294.777797509124</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3399.6036491308805</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2656.8927309294631</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2448.572953068448</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2580.7974388475445</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2481.9183490049027</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2082.0915160057211</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>6085.2909665695324</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>10516.2768163784</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>7575.8340790819648</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2063.8554499190514</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>4539.4640314338967</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3947.0480417056733</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3122.4019318355431</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3542.9041811769089</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3878.1814135920117</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2660.0723998589929</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2908.9614609204732</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2813.2977466634675</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>7584.3158992243343</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>12941.969692113651</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>34488.253163675312</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>16476.769497026613</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>6587.843513883754</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5286.8697618967199</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3800.2380534524309</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3362.6953366424536</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3385.5824044309347</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3469.7947175485215</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2920.1147668784124</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2585.8576244818241</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>4294.5805390483229</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>16840.648214500645</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>39793.545695186091</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>9027.5555098328641</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>6032.9478974977528</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>5590.5273670322222</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4800.8823063173659</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>5698.2152521318258</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>4084.4367579785871</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3549.3069014282964</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2943.6893955104051</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3326.241525175813</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>13861.422981324991</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>14493.590389575063</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>13797.480897572337</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2931.7738438548899</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>5027.7362167216106</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>4797.6660655218757</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>4169.9916597869096</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3950.7989680632622</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2913.1297506366268</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2661.3768357491354</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2578.1835610625476</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2239.5847339285428</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3021.2194450412771</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6214.3094508852755</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>33326.352766192002</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>27915.940448924157</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>7453.0340701958248</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>5322.4531922556253</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>4238.0855185325136</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>3487.6996024439627</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3632.1003856210064</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3133.1281478610313</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3056.1109636884512</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3021.5866732440581</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>6208.1106042271276</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>15677.022982437928</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>34659.040851280704</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>12389.175002561726</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>6463.6293728470355</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>5445.5225017627499</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>4021.5610149291642</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3768.0088917536073</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3248.159152044766</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3073.8794466748814</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2814.60261497801</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2486.2423159163768</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3618.7496126403221</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>8270.7428712984274</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>20450.762004149325</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>18500.605540454155</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>6463.3571206514061</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5349.8771813851417</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3753.5087442275262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5775-4952-8E2C-8CFF582BBA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="442094408"/>
+        <c:axId val="442097360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="442094408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40800"/>
+          <c:min val="29200"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="442097360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442097360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442094408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>347662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73767FE1-1E22-4716-A274-871BEE6BC3B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,7 +4562,7 @@
   <dimension ref="A1:F362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7650,5 +11798,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>